--- a/Defaults/p10-2024_08.xlsx
+++ b/Defaults/p10-2024_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya.shatalov\Desktop\Data\GIS\Toolboxex\Defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943197B4-B9AB-458B-97DD-76F5DB33D10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B65C24-58A0-4798-9E2D-142E70C14F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClassID" sheetId="1" r:id="rId1"/>
@@ -15765,10 +15765,10 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:L1578"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63429,8 +63429,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65031,7 +65031,7 @@
         <v>Слой «Границы территории исторического поселения»</v>
       </c>
       <c r="E79" t="s">
-        <v>2752</v>
+        <v>2754</v>
       </c>
       <c r="F79" t="s">
         <v>2844</v>

--- a/Defaults/p10-2024_08.xlsx
+++ b/Defaults/p10-2024_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya.shatalov\Desktop\Data\GIS\Toolboxex\Defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B65C24-58A0-4798-9E2D-142E70C14F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F25D1C-4298-489A-9FAB-1709651F5548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClassID" sheetId="1" r:id="rId1"/>
@@ -15765,10 +15765,10 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:L1578"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C627" sqref="C627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45080,7 +45080,7 @@
         <v>525</v>
       </c>
       <c r="B1395" t="s">
-        <v>1578</v>
+        <v>1056</v>
       </c>
       <c r="C1395" t="s">
         <v>1579</v>
@@ -63429,7 +63429,7 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
